--- a/docs/content/SimpleInvoice_Updated.xlsx
+++ b/docs/content/SimpleInvoice_Updated.xlsx
@@ -149,7 +149,7 @@
     <x:t>FooBar 2</x:t>
   </x:si>
   <x:si>
-    <x:t>300</x:t>
+    <x:t>My Company</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/docs/content/SimpleInvoice_Updated.xlsx
+++ b/docs/content/SimpleInvoice_Updated.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <x:workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinbull/Appdev/officeprovider/docs/content/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="-15" yWindow="6165" windowWidth="19170" windowHeight="6225"/>
+    <x:workbookView xWindow="0" yWindow="6160" windowWidth="28880" windowHeight="12420"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Service Invoice" sheetId="1" r:id="rId1"/>
@@ -26,15 +31,17 @@
     <x:definedName name="UNITPRICE">'Service Invoice'!$E$18</x:definedName>
     <x:definedName name="VAT">'Service Invoice'!$F$40</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="144525"/>
+  <x:calcPr calcId="150001" concurrentCalc="0"/>
+  <x:extLst>
+    <x:ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <x:si>
-    <x:t>[100]</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <x:si>
     <x:t>[Company Name]</x:t>
   </x:si>
@@ -148,19 +155,16 @@
   <x:si>
     <x:t>FooBar 2</x:t>
   </x:si>
-  <x:si>
-    <x:t>My Company</x:t>
-  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -345,7 +349,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,7 +403,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -414,50 +418,36 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -465,9 +455,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,9 +585,12 @@
             <c:strRef>
               <c:f>'Service Invoice'!$A$18:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.00 FooBar</c:v>
+                  <c:v>1.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FooBar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -596,10 +603,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,9 +619,12 @@
             <c:strRef>
               <c:f>'Service Invoice'!$A$19:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.00 FooBar 2</c:v>
+                  <c:v>2.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FooBar 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -627,10 +637,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="2" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,11 +655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104839040"/>
-        <c:axId val="104840576"/>
+        <c:axId val="-2139980608"/>
+        <c:axId val="-2139984224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104839040"/>
+        <c:axId val="-2139980608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104840576"/>
+        <c:crossAx val="-2139984224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104840576"/>
+        <c:axId val="-2139984224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,14 +687,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104839040"/>
+        <c:crossAx val="-2139980608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1086,30 +1095,30 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:F51"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="L18" sqref="L18"/>
+    <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F4" sqref="F4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <x:cols>
-    <x:col min="1" max="2" width="13.7109375" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
-    <x:col min="4" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <x:col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <x:col min="7" max="16384" width="9.140625" style="2"/>
+    <x:col min="1" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
+    <x:col min="4" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <x:col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <x:col min="7" max="16384" width="9.1640625" style="2"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="1">
+    <x:row r="1" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.7">
       <x:c r="A1" s="1"/>
-      <x:c r="B1" s="44" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C1" s="44"/>
-      <x:c r="D1" s="44"/>
-      <x:c r="E1" s="44"/>
-      <x:c r="F1" s="44"/>
-    </x:row>
-    <x:row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="B1" s="46" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="46"/>
+      <x:c r="D1" s="46"/>
+      <x:c r="E1" s="46"/>
+      <x:c r="F1" s="46"/>
+    </x:row>
+    <x:row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="3"/>
       <x:c r="B2" s="3"/>
       <x:c r="C2" s="3"/>
@@ -1117,134 +1126,134 @@
       <x:c r="E2" s="5"/>
       <x:c r="F2" s="6"/>
     </x:row>
-    <x:row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="45" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B3" s="45"/>
-      <x:c r="C3" s="45"/>
+    <x:row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="47" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="47"/>
+      <x:c r="C3" s="47"/>
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F3" s="6">
         <x:f ca="1">TODAY()</x:f>
-        <x:v>41908</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="46" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="46"/>
-      <x:c r="C4" s="46"/>
+        <x:v>42499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A4" s="48" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B4" s="48"/>
+      <x:c r="C4" s="48"/>
       <x:c r="D4" s="7"/>
       <x:c r="E4" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F4" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="46"/>
-      <x:c r="B5" s="46"/>
-      <x:c r="C5" s="46"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F4" s="5">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <x:c r="A5" s="48"/>
+      <x:c r="B5" s="48"/>
+      <x:c r="C5" s="48"/>
       <x:c r="E5" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <x:c r="F6" s="9"/>
     </x:row>
-    <x:row r="7" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <x:c r="F7" s="10"/>
     </x:row>
-    <x:row r="8" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <x:c r="A8" s="5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B8" s="47" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C8" s="47"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="42" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C8" s="42"/>
       <x:c r="E8" s="10"/>
       <x:c r="F8" s="10"/>
     </x:row>
-    <x:row r="9" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <x:c r="A9" s="11"/>
-      <x:c r="B9" s="47" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C9" s="47"/>
+      <x:c r="B9" s="42" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C9" s="42"/>
       <x:c r="D9" s="9"/>
       <x:c r="E9" s="10"/>
       <x:c r="F9" s="10"/>
     </x:row>
-    <x:row r="10" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <x:c r="A10" s="9"/>
       <x:c r="B10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="9"/>
       <x:c r="E10" s="10"/>
       <x:c r="F10" s="10"/>
     </x:row>
-    <x:row r="11" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <x:c r="A11" s="9"/>
       <x:c r="B11" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="5"/>
       <x:c r="E11" s="10"/>
       <x:c r="F11" s="10"/>
     </x:row>
-    <x:row r="12" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <x:c r="A12" s="9"/>
       <x:c r="B12" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="9"/>
       <x:c r="E12" s="10"/>
       <x:c r="F12" s="10"/>
     </x:row>
-    <x:row r="13" spans="1:6" s="8" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="48"/>
-      <x:c r="B13" s="48"/>
-      <x:c r="C13" s="48"/>
-      <x:c r="D13" s="48"/>
-      <x:c r="E13" s="48"/>
-      <x:c r="F13" s="48"/>
-    </x:row>
-    <x:row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="38"/>
-      <x:c r="B14" s="38"/>
+    <x:row r="13" spans="1:6" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <x:c r="A13" s="49"/>
+      <x:c r="B13" s="49"/>
+      <x:c r="C13" s="49"/>
+      <x:c r="D13" s="49"/>
+      <x:c r="E13" s="49"/>
+      <x:c r="F13" s="49"/>
+    </x:row>
+    <x:row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A14" s="52"/>
+      <x:c r="B14" s="52"/>
       <x:c r="C14"/>
-      <x:c r="D14" s="39" t="s">
+      <x:c r="D14" s="41" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E14" s="41"/>
+      <x:c r="F14" s="27" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E14" s="39"/>
-      <x:c r="F14" s="27" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="38"/>
-      <x:c r="B15" s="38"/>
+    </x:row>
+    <x:row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A15" s="52"/>
+      <x:c r="B15" s="52"/>
       <x:c r="C15"/>
-      <x:c r="D15" s="40" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E15" s="40"/>
+      <x:c r="D15" s="38" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E15" s="38"/>
       <x:c r="F15" s="28"/>
     </x:row>
-    <x:row r="16" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A16" s="12"/>
       <x:c r="B16" s="12"/>
       <x:c r="C16" s="13"/>
@@ -1252,31 +1261,31 @@
       <x:c r="E16" s="13"/>
       <x:c r="F16" s="14"/>
     </x:row>
-    <x:row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A17" s="27" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B17" s="41" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B17" s="39" t="s">
+      <x:c r="C17" s="41"/>
+      <x:c r="D17" s="41"/>
+      <x:c r="E17" s="27" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C17" s="39"/>
-      <x:c r="D17" s="39"/>
-      <x:c r="E17" s="27" t="s">
+      <x:c r="F17" s="27" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F17" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </x:row>
+    <x:row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A18" s="29">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B18" s="43" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C18" s="40"/>
-      <x:c r="D18" s="40"/>
+      <x:c r="B18" s="37" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C18" s="38"/>
+      <x:c r="D18" s="38"/>
       <x:c r="E18" s="31">
         <x:v>300</x:v>
       </x:c>
@@ -1285,15 +1294,15 @@
         <x:v>300</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A19" s="30">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B19" s="41" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C19" s="42"/>
-      <x:c r="D19" s="42"/>
+      <x:c r="B19" s="39" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C19" s="40"/>
+      <x:c r="D19" s="40"/>
       <x:c r="E19" s="33">
         <x:v>600</x:v>
       </x:c>
@@ -1302,278 +1311,278 @@
         <x:v>1200</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A20" s="29"/>
-      <x:c r="B20" s="43"/>
-      <x:c r="C20" s="40"/>
-      <x:c r="D20" s="40"/>
+      <x:c r="B20" s="37"/>
+      <x:c r="C20" s="38"/>
+      <x:c r="D20" s="38"/>
       <x:c r="E20" s="34"/>
       <x:c r="F20" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A21" s="30"/>
-      <x:c r="B21" s="41"/>
-      <x:c r="C21" s="42"/>
-      <x:c r="D21" s="42"/>
+      <x:c r="B21" s="39"/>
+      <x:c r="C21" s="40"/>
+      <x:c r="D21" s="40"/>
       <x:c r="E21" s="33"/>
       <x:c r="F21" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A22" s="29"/>
-      <x:c r="B22" s="43"/>
-      <x:c r="C22" s="40"/>
-      <x:c r="D22" s="40"/>
+      <x:c r="B22" s="37"/>
+      <x:c r="C22" s="38"/>
+      <x:c r="D22" s="38"/>
       <x:c r="E22" s="34"/>
       <x:c r="F22" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A23" s="30"/>
-      <x:c r="B23" s="41"/>
-      <x:c r="C23" s="42"/>
-      <x:c r="D23" s="42"/>
+      <x:c r="B23" s="39"/>
+      <x:c r="C23" s="40"/>
+      <x:c r="D23" s="40"/>
       <x:c r="E23" s="33"/>
       <x:c r="F23" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A24" s="29"/>
-      <x:c r="B24" s="43"/>
-      <x:c r="C24" s="40"/>
-      <x:c r="D24" s="40"/>
+      <x:c r="B24" s="37"/>
+      <x:c r="C24" s="38"/>
+      <x:c r="D24" s="38"/>
       <x:c r="E24" s="34"/>
       <x:c r="F24" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A25" s="30"/>
-      <x:c r="B25" s="41"/>
-      <x:c r="C25" s="42"/>
-      <x:c r="D25" s="42"/>
+      <x:c r="B25" s="39"/>
+      <x:c r="C25" s="40"/>
+      <x:c r="D25" s="40"/>
       <x:c r="E25" s="33"/>
       <x:c r="F25" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A26" s="29"/>
-      <x:c r="B26" s="43"/>
-      <x:c r="C26" s="40"/>
-      <x:c r="D26" s="40"/>
+      <x:c r="B26" s="37"/>
+      <x:c r="C26" s="38"/>
+      <x:c r="D26" s="38"/>
       <x:c r="E26" s="34"/>
       <x:c r="F26" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A27" s="30"/>
-      <x:c r="B27" s="41"/>
-      <x:c r="C27" s="42"/>
-      <x:c r="D27" s="42"/>
+      <x:c r="B27" s="39"/>
+      <x:c r="C27" s="40"/>
+      <x:c r="D27" s="40"/>
       <x:c r="E27" s="33"/>
       <x:c r="F27" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A28" s="29"/>
-      <x:c r="B28" s="43"/>
-      <x:c r="C28" s="40"/>
-      <x:c r="D28" s="40"/>
+      <x:c r="B28" s="37"/>
+      <x:c r="C28" s="38"/>
+      <x:c r="D28" s="38"/>
       <x:c r="E28" s="34"/>
       <x:c r="F28" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A29" s="30"/>
-      <x:c r="B29" s="41"/>
-      <x:c r="C29" s="42"/>
-      <x:c r="D29" s="42"/>
+      <x:c r="B29" s="39"/>
+      <x:c r="C29" s="40"/>
+      <x:c r="D29" s="40"/>
       <x:c r="E29" s="33"/>
       <x:c r="F29" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A30" s="29"/>
-      <x:c r="B30" s="43"/>
-      <x:c r="C30" s="40"/>
-      <x:c r="D30" s="40"/>
+      <x:c r="B30" s="37"/>
+      <x:c r="C30" s="38"/>
+      <x:c r="D30" s="38"/>
       <x:c r="E30" s="34"/>
       <x:c r="F30" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A31" s="30"/>
-      <x:c r="B31" s="41"/>
-      <x:c r="C31" s="42"/>
-      <x:c r="D31" s="42"/>
+      <x:c r="B31" s="39"/>
+      <x:c r="C31" s="40"/>
+      <x:c r="D31" s="40"/>
       <x:c r="E31" s="33"/>
       <x:c r="F31" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A32" s="29"/>
-      <x:c r="B32" s="43"/>
-      <x:c r="C32" s="40"/>
-      <x:c r="D32" s="40"/>
+      <x:c r="B32" s="37"/>
+      <x:c r="C32" s="38"/>
+      <x:c r="D32" s="38"/>
       <x:c r="E32" s="34"/>
       <x:c r="F32" s="33" t="str">
         <x:f>IF(SUM(A32)&gt;0,SUM(A32*E32),"")</x:f>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A33" s="30"/>
-      <x:c r="B33" s="41"/>
-      <x:c r="C33" s="42"/>
-      <x:c r="D33" s="42"/>
+      <x:c r="B33" s="39"/>
+      <x:c r="C33" s="40"/>
+      <x:c r="D33" s="40"/>
       <x:c r="E33" s="33"/>
       <x:c r="F33" s="33" t="str">
         <x:f>IF(SUM(A33)&gt;0,SUM(A33*E33),"")</x:f>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A34" s="29"/>
-      <x:c r="B34" s="43"/>
-      <x:c r="C34" s="40"/>
-      <x:c r="D34" s="40"/>
+      <x:c r="B34" s="37"/>
+      <x:c r="C34" s="38"/>
+      <x:c r="D34" s="38"/>
       <x:c r="E34" s="34"/>
       <x:c r="F34" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A35" s="30"/>
-      <x:c r="B35" s="41"/>
-      <x:c r="C35" s="42"/>
-      <x:c r="D35" s="42"/>
+      <x:c r="B35" s="39"/>
+      <x:c r="C35" s="40"/>
+      <x:c r="D35" s="40"/>
       <x:c r="E35" s="33"/>
       <x:c r="F35" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A36" s="29"/>
-      <x:c r="B36" s="43"/>
-      <x:c r="C36" s="40"/>
-      <x:c r="D36" s="40"/>
+      <x:c r="B36" s="37"/>
+      <x:c r="C36" s="38"/>
+      <x:c r="D36" s="38"/>
       <x:c r="E36" s="34"/>
       <x:c r="F36" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A37" s="30"/>
-      <x:c r="B37" s="41"/>
-      <x:c r="C37" s="42"/>
-      <x:c r="D37" s="42"/>
+      <x:c r="B37" s="39"/>
+      <x:c r="C37" s="40"/>
+      <x:c r="D37" s="40"/>
       <x:c r="E37" s="33"/>
       <x:c r="F37" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A38" s="29"/>
-      <x:c r="B38" s="43"/>
-      <x:c r="C38" s="40"/>
-      <x:c r="D38" s="40"/>
+      <x:c r="B38" s="37"/>
+      <x:c r="C38" s="38"/>
+      <x:c r="D38" s="38"/>
       <x:c r="E38" s="34"/>
       <x:c r="F38" s="33" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A39" s="16"/>
       <x:c r="B39" s="17"/>
       <x:c r="C39" s="17"/>
       <x:c r="D39" s="17"/>
       <x:c r="E39" s="18" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F39" s="32">
         <x:f>IF(SUM(F18:F38)&gt;0,SUM(F18:F38),"")</x:f>
         <x:v>1500</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A40" s="17"/>
       <x:c r="B40" s="17"/>
       <x:c r="C40" s="17"/>
       <x:c r="D40" s="17"/>
       <x:c r="E40" s="18" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F40" s="34"/>
     </x:row>
-    <x:row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A41" s="17"/>
       <x:c r="B41" s="17"/>
       <x:c r="C41" s="17"/>
       <x:c r="D41" s="17"/>
       <x:c r="E41" s="18" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F41" s="35">
         <x:f>IF(SUM(F39)&gt;0,SUM((F39*F40)+F39),"")</x:f>
         <x:v>1500</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A42" s="49"/>
-      <x:c r="B42" s="49"/>
-      <x:c r="C42" s="49"/>
-      <x:c r="D42" s="49"/>
-      <x:c r="E42" s="49"/>
-      <x:c r="F42" s="49"/>
-    </x:row>
-    <x:row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A43" s="50" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B43" s="51"/>
-      <x:c r="C43" s="51"/>
-      <x:c r="D43" s="51"/>
-      <x:c r="E43" s="51"/>
-      <x:c r="F43" s="51"/>
-    </x:row>
-    <x:row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A44" s="51"/>
-      <x:c r="B44" s="51"/>
-      <x:c r="C44" s="51"/>
-      <x:c r="D44" s="51"/>
-      <x:c r="E44" s="51"/>
-      <x:c r="F44" s="51"/>
-    </x:row>
-    <x:row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="42" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A42" s="43"/>
+      <x:c r="B42" s="43"/>
+      <x:c r="C42" s="43"/>
+      <x:c r="D42" s="43"/>
+      <x:c r="E42" s="43"/>
+      <x:c r="F42" s="43"/>
+    </x:row>
+    <x:row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A43" s="44" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="45"/>
+      <x:c r="C43" s="45"/>
+      <x:c r="D43" s="45"/>
+      <x:c r="E43" s="45"/>
+      <x:c r="F43" s="45"/>
+    </x:row>
+    <x:row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A44" s="45"/>
+      <x:c r="B44" s="45"/>
+      <x:c r="C44" s="45"/>
+      <x:c r="D44" s="45"/>
+      <x:c r="E44" s="45"/>
+      <x:c r="F44" s="45"/>
+    </x:row>
+    <x:row r="45" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A45" s="19"/>
       <x:c r="B45" s="19"/>
       <x:c r="C45" s="19"/>
@@ -1581,17 +1590,17 @@
       <x:c r="E45" s="19"/>
       <x:c r="F45" s="19"/>
     </x:row>
-    <x:row r="46" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A46" s="52" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B46" s="52"/>
-      <x:c r="C46" s="52"/>
-      <x:c r="D46" s="52"/>
-      <x:c r="E46" s="52"/>
-      <x:c r="F46" s="52"/>
-    </x:row>
-    <x:row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="46" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <x:c r="A46" s="36" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B46" s="36"/>
+      <x:c r="C46" s="36"/>
+      <x:c r="D46" s="36"/>
+      <x:c r="E46" s="36"/>
+      <x:c r="F46" s="36"/>
+    </x:row>
+    <x:row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A47" s="21"/>
       <x:c r="B47" s="22"/>
       <x:c r="C47" s="22"/>
@@ -1599,20 +1608,20 @@
       <x:c r="E47" s="9"/>
       <x:c r="F47" s="9"/>
     </x:row>
-    <x:row r="48" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="B48" s="36"/>
-      <x:c r="C48" s="37"/>
-      <x:c r="D48" s="37"/>
-      <x:c r="E48" s="37"/>
-    </x:row>
-    <x:row r="49" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="B48" s="50"/>
+      <x:c r="C48" s="51"/>
+      <x:c r="D48" s="51"/>
+      <x:c r="E48" s="51"/>
+    </x:row>
+    <x:row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B49" s="24"/>
       <x:c r="C49" s="25"/>
       <x:c r="D49" s="25"/>
       <x:c r="E49" s="25"/>
     </x:row>
-    <x:row r="50" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="50" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A51" s="26"/>
       <x:c r="B51" s="26"/>
       <x:c r="C51" s="26"/>
@@ -1622,26 +1631,6 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="36">
-    <x:mergeCell ref="A46:F46"/>
-    <x:mergeCell ref="B34:D34"/>
-    <x:mergeCell ref="B35:D35"/>
-    <x:mergeCell ref="B31:D31"/>
-    <x:mergeCell ref="B30:D30"/>
-    <x:mergeCell ref="B38:D38"/>
-    <x:mergeCell ref="B37:D37"/>
-    <x:mergeCell ref="B32:D32"/>
-    <x:mergeCell ref="B33:D33"/>
-    <x:mergeCell ref="B19:D19"/>
-    <x:mergeCell ref="B17:D17"/>
-    <x:mergeCell ref="B9:C9"/>
-    <x:mergeCell ref="A42:F42"/>
-    <x:mergeCell ref="A43:F44"/>
-    <x:mergeCell ref="B29:D29"/>
-    <x:mergeCell ref="B1:F1"/>
-    <x:mergeCell ref="A3:C3"/>
-    <x:mergeCell ref="A4:C5"/>
-    <x:mergeCell ref="B8:C8"/>
-    <x:mergeCell ref="A13:F13"/>
     <x:mergeCell ref="B48:E48"/>
     <x:mergeCell ref="A14:B14"/>
     <x:mergeCell ref="A15:B15"/>
@@ -1658,6 +1647,26 @@
     <x:mergeCell ref="B24:D24"/>
     <x:mergeCell ref="B23:D23"/>
     <x:mergeCell ref="B22:D22"/>
+    <x:mergeCell ref="B1:F1"/>
+    <x:mergeCell ref="A3:C3"/>
+    <x:mergeCell ref="A4:C5"/>
+    <x:mergeCell ref="B8:C8"/>
+    <x:mergeCell ref="A13:F13"/>
+    <x:mergeCell ref="B19:D19"/>
+    <x:mergeCell ref="B17:D17"/>
+    <x:mergeCell ref="B9:C9"/>
+    <x:mergeCell ref="A42:F42"/>
+    <x:mergeCell ref="A43:F44"/>
+    <x:mergeCell ref="B29:D29"/>
+    <x:mergeCell ref="A46:F46"/>
+    <x:mergeCell ref="B34:D34"/>
+    <x:mergeCell ref="B35:D35"/>
+    <x:mergeCell ref="B31:D31"/>
+    <x:mergeCell ref="B30:D30"/>
+    <x:mergeCell ref="B38:D38"/>
+    <x:mergeCell ref="B37:D37"/>
+    <x:mergeCell ref="B32:D32"/>
+    <x:mergeCell ref="B33:D33"/>
   </x:mergeCells>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="1"/>
